--- a/experiment result/128_0.2_40_zs30_kappa_lp.xlsx
+++ b/experiment result/128_0.2_40_zs30_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.05840261645990424</v>
+        <v>0.005676366097218105</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.06067532469344411</v>
+        <v>0.02895533378864592</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.07080898721771997</v>
+        <v>0.03835143562536479</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.06524023540513563</v>
+        <v>0.02807319564469614</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.05741987163824787</v>
+        <v>0.006812720351536945</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.06729102818517149</v>
+        <v>0.02446241502857282</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.06881673728268209</v>
+        <v>0.02798063244632635</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.05272141963521206</v>
+        <v>0.01564488892876693</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.05683721257586373</v>
+        <v>0.02800847211229098</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.05352109602112039</v>
+        <v>0.08395609202026191</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.06757552322041982</v>
+        <v>0.01444558735557926</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.08541119831778786</v>
+        <v>0.05858695606773467</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.09248988287410713</v>
+        <v>0.01560665474059084</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.06711386822789636</v>
+        <v>0.02012545313891519</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.05935076331560922</v>
+        <v>0.02847812392842399</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.09079398360316256</v>
+        <v>0.06340717918410931</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.06715001317755925</v>
+        <v>0.01951131517150278</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.06929348052343613</v>
+        <v>0.001513418132376082</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.06080645301939192</v>
+        <v>0.04312469447549078</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.07984464927224016</v>
+        <v>0.01569888402175599</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.04501144015342279</v>
+        <v>0.01090063455052332</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.05779325566349885</v>
+        <v>0.006102636284701948</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.07039157918008823</v>
+        <v>0.02733728163347647</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.04589577209168916</v>
+        <v>0.006089826505964223</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.04695758149723403</v>
+        <v>0.002075370387605478</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.06669611131965922</v>
+        <v>0.04599572615535423</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.08006757854284201</v>
+        <v>0.01338887464752829</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.0514992506281541</v>
+        <v>0.01836791405272686</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.054036784020454</v>
+        <v>0.0327995476492464</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.07519870034697025</v>
+        <v>0.03505013504477948</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.0533571664284212</v>
+        <v>0.002429040227433302</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.06320319018728714</v>
+        <v>0.007732401001773072</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.09051542026145527</v>
+        <v>0.05104954672867501</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.05209739548305653</v>
+        <v>0.01759726508897409</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.07029606611566319</v>
+        <v>0.03265899088778846</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.08990501647445884</v>
+        <v>0.07270446120265549</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.05366484579215373</v>
+        <v>0.02068381802821085</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.08431695069678333</v>
+        <v>0.01136411922547855</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.05779156236077745</v>
+        <v>0.01437242183490279</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.06172672083449406</v>
+        <v>0.04826906648971964</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.07628215117753985</v>
+        <v>0.05597451386789749</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.03834911136006322</v>
+        <v>0.01493399791579171</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.05874084717077693</v>
+        <v>0.05754096886008311</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.0560287517521843</v>
+        <v>0.02158594612267328</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.05385247557388691</v>
+        <v>0.09297446072426513</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.07212426507457195</v>
+        <v>0.01857037791158658</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.07747993172965678</v>
+        <v>0.09650706901009418</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.05720780986751876</v>
+        <v>0.0142201487628971</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.0652960445219679</v>
+        <v>0.009883783608654143</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.06959445442134739</v>
+        <v>0.002805350940418827</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.06356539229500438</v>
+        <v>0.04829658858425041</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.06034069571592153</v>
+        <v>0.04298095919630641</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.03126803885741695</v>
+        <v>0.002100660424990129</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.03581242827836677</v>
+        <v>0.002797437322173038</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.07160166610201901</v>
+        <v>0.0224092764571102</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.07432616832978707</v>
+        <v>0.01676025681647169</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.06048389996750107</v>
+        <v>0.01697184622686745</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.06304573221107732</v>
+        <v>0.01933507494615646</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.05776475094249438</v>
+        <v>0.02214647518371994</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.06418634487540889</v>
+        <v>0.01770093074930122</v>
       </c>
     </row>
     <row r="62">
@@ -923,7 +923,7 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>0.03647800210598063</v>
+        <v>0.0005550810290357421</v>
       </c>
     </row>
     <row r="63">
@@ -931,7 +931,7 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>0.04412463483857473</v>
+        <v>0.005408186877754136</v>
       </c>
     </row>
     <row r="64">
@@ -939,7 +939,7 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>0.05491903488073887</v>
+        <v>0.005426362190202871</v>
       </c>
     </row>
     <row r="65">
@@ -947,7 +947,7 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>0.05837859704564169</v>
+        <v>0.00537395818763135</v>
       </c>
     </row>
     <row r="66">
@@ -955,7 +955,7 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>0.06865235617997328</v>
+        <v>0.01796198990364109</v>
       </c>
     </row>
     <row r="67">
@@ -963,7 +963,7 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>0.06687460142250476</v>
+        <v>0.03840229896799295</v>
       </c>
     </row>
     <row r="68">
@@ -971,7 +971,7 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>0.06671037541084768</v>
+        <v>0.03849616810901296</v>
       </c>
     </row>
     <row r="69">
@@ -979,7 +979,7 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>0.05690202091973857</v>
+        <v>0.01338888177726416</v>
       </c>
     </row>
     <row r="70">
@@ -987,7 +987,7 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>0.04980416377231735</v>
+        <v>0.008081348364542357</v>
       </c>
     </row>
     <row r="71">
@@ -995,7 +995,7 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>0.0565891271983763</v>
+        <v>0.006580641679384958</v>
       </c>
     </row>
     <row r="72">
@@ -1003,7 +1003,7 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>0.06943250845963811</v>
+        <v>0.02917102273864613</v>
       </c>
     </row>
     <row r="73">
@@ -1011,7 +1011,7 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>0.04713495773245467</v>
+        <v>0.006856953108989729</v>
       </c>
     </row>
     <row r="74">
@@ -1019,7 +1019,7 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>0.06732682713250342</v>
+        <v>0.01588402922681597</v>
       </c>
     </row>
     <row r="75">
@@ -1027,7 +1027,7 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>0.06025437817756819</v>
+        <v>0.009732554376504533</v>
       </c>
     </row>
     <row r="76">
@@ -1035,7 +1035,7 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>0.07168842829838715</v>
+        <v>0.0251139216235921</v>
       </c>
     </row>
     <row r="77">
@@ -1043,7 +1043,7 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>0.04886175708797157</v>
+        <v>0.01376564242741403</v>
       </c>
     </row>
     <row r="78">
@@ -1051,7 +1051,7 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>0.06087747847057788</v>
+        <v>0.004045195991830484</v>
       </c>
     </row>
     <row r="79">
@@ -1059,7 +1059,7 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>0.05603358955442841</v>
+        <v>0.008435538424380622</v>
       </c>
     </row>
     <row r="80">
@@ -1067,7 +1067,7 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>0.05840538518409508</v>
+        <v>0.0330752071617098</v>
       </c>
     </row>
     <row r="81">
@@ -1075,7 +1075,7 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>0.05786369285329965</v>
+        <v>0.01773572021042698</v>
       </c>
     </row>
   </sheetData>
